--- a/Inputs/past electricity_price.xlsx
+++ b/Inputs/past electricity_price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectpolyu-my.sharepoint.com/personal/16901251r_connect_polyu_hk/Documents/0-Turing/5_VOI/Uncertainty analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectpolyu-my.sharepoint.com/personal/16901251r_connect_polyu_hk/Documents/0-Turing/5_VOI/VOI ASHP uncertainty analysis/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC10489DF99E43845BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55A4670-66C2-4578-9BDC-96F514D40637}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC10489DF99E43845BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48224A75-01FD-4330-844E-4FB3984279E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,6 +603,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94EBF086-F3D9-4918-A3FE-C637A8F87D44}" name="Average_variable_unit_costs_and_standing_charges_for_standard_electricity_for_UK_regions_since_2010" displayName="Average_variable_unit_costs_and_standing_charges_for_standard_electricity_for_UK_regions_since_2010" ref="A1:K196" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:K196" xr:uid="{94EBF086-F3D9-4918-A3FE-C637A8F87D44}"/>
@@ -888,13 +892,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="84.75" x14ac:dyDescent="0.25">
